--- a/test_files/Primers/Direct.xlsx
+++ b/test_files/Primers/Direct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakob/ddPrimer/test_files/Primers/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD342E6C-9417-9B4D-9D5F-1FC32E97293E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE24364-A487-734A-A2FA-EF5CC935B64F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5440" yWindow="4100" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>sequence name</t>
   </si>
   <si>
-    <t>sequence</t>
-  </si>
-  <si>
     <t>ALDH3H1</t>
   </si>
   <si>
@@ -99,6 +96,81 @@
   </si>
   <si>
     <t>CAGTGGTCTACTTCAGTGCCCCACCATTTGAGGTCGTGTCCAGCATTCTGCAGGGCGAAGAACAAGAGCACCCCCATGAACGCGGTCCCTGCATCGAGCGCTGCAGAGAGTACGTAATTGTACTTCTGCCACCATCTCTTGTGGTAATTGAACACAAAGTAGTTGAAGATGGTTCCTGTGACC</t>
+  </si>
+  <si>
+    <t>TGTCCCACTTCTGCTCTAG</t>
+  </si>
+  <si>
+    <t>GTCAGCTCTGCTCACTAAG</t>
+  </si>
+  <si>
+    <t>GGATACAAGTGGTGCTGAG</t>
+  </si>
+  <si>
+    <t>CCCTGAACTTGACCTGATG</t>
+  </si>
+  <si>
+    <t>CAAGAGGACTAGCTTCACG</t>
+  </si>
+  <si>
+    <t>GTCCCATATCCATCCAACG</t>
+  </si>
+  <si>
+    <t>CCATGAAGGTGTCTCCAAC</t>
+  </si>
+  <si>
+    <t>GATGTTGTGGGCTTAGAGG</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>GAGTCGGAATCAGTGAAGG</t>
+  </si>
+  <si>
+    <t>GAAGTCGTCGGATAAGTCAC</t>
+  </si>
+  <si>
+    <t>GCATTGGAAGATCGAGGAG</t>
+  </si>
+  <si>
+    <t>ATCCGTCCTCATCACTACC</t>
+  </si>
+  <si>
+    <t>CCGGAGTATCAAGCATGTC</t>
+  </si>
+  <si>
+    <t>GTTTACCCTCTCGGCAATG</t>
+  </si>
+  <si>
+    <t>CTTCTTAAGGGACCTGCTG</t>
+  </si>
+  <si>
+    <t>CAATGGTAGCGAGGAAGAC</t>
+  </si>
+  <si>
+    <t>CAGTGGTCTACTTCAGTGC</t>
+  </si>
+  <si>
+    <t>GGTCACAGGAACCATCTTC</t>
+  </si>
+  <si>
+    <t>ACTCTTCCCTATCCCTTCTG</t>
+  </si>
+  <si>
+    <t>AGTCCTGGGATAAGAGGTG</t>
+  </si>
+  <si>
+    <t>OPT32</t>
+  </si>
+  <si>
+    <t>CAGTAAAGGTCTACTTCAGTGCCCCACCATTTGAGGTCGTGTCCAGCATTCTGCAGGGCGAAGAACAAGAGCACCCCCATGAACGCGGTCCCTGCATCGAGCGCTGCAGAGAGTACGTAATTGTACTTCTGCCACCATCTCTTGTGGTAATTGAACACAAAGTAGTTGAAGATGGTTCCTGTGACC</t>
+  </si>
+  <si>
+    <t>amplicon</t>
   </si>
 </sst>
 </file>
@@ -507,18 +579,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -526,98 +599,178 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="C1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
